--- a/medicine/Psychotrope/Arran_(distillerie)/Arran_(distillerie).xlsx
+++ b/medicine/Psychotrope/Arran_(distillerie)/Arran_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arran est une distillerie de whisky située sur l'île d'Arran en Écosse. Sise à Lochranza, elle a été fondée en 1995.
 Arran a une longue histoire dans le monde du whisky. Au milieu du XVIIIe siècle il existait près de cinquante distilleries sur l’île (la plupart clandestines), mais elles ont toutes fermé depuis, à l'exception de la distillerie d'Arran et de celle de Lagg. La création de la nouvelle distillerie en 1995 renouvelle donc la tradition sur Arran. L’eau-de-vie qui y est produite a reçu l’appellation « whisky » en 1998.
-La distillerie possède 2 wash still et 2 spirit still[1].
+La distillerie possède 2 wash still et 2 spirit still.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie d’Arran produit un single malt vendu en nom propre :
 Arran Robert Burns
@@ -558,7 +572,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Site officiel de la distillerie</t>
         </is>
